--- a/Примеры.xlsx
+++ b/Примеры.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Диск\QA\ДИПЛОМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yana\Документы\GitHub\qa_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F74D634-5734-4AC9-848A-EC10944E3B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA80742A-4E1C-4437-B037-41F1D19713AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -4094,21 +4094,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4124,6 +4109,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4135,6 +4123,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4152,18 +4164,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,6 +4188,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4223,23 +4259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4252,30 +4276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7093,7 +7093,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -8132,7 +8132,7 @@
   </sheetPr>
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
@@ -8150,15 +8150,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -8216,13 +8216,13 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
       <c r="H3" s="49"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -9678,15 +9678,15 @@
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="153"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="149"/>
       <c r="H44" s="49"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -10204,15 +10204,15 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="142" t="s">
+      <c r="A59" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="154"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="155"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="151"/>
       <c r="H59" s="49"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -10470,15 +10470,15 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="144"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="152"/>
+      <c r="E67" s="152"/>
+      <c r="F67" s="152"/>
+      <c r="G67" s="153"/>
       <c r="H67" s="49"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -10808,15 +10808,15 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="142" t="s">
+      <c r="A77" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="143"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="143"/>
-      <c r="F77" s="143"/>
-      <c r="G77" s="144"/>
+      <c r="B77" s="152"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="153"/>
       <c r="H77" s="49"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -11080,15 +11080,15 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="142" t="s">
+      <c r="A85" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="146"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="154"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="155"/>
       <c r="H85" s="49"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -11492,15 +11492,15 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="142" t="s">
+      <c r="A97" s="147" t="s">
         <v>455</v>
       </c>
-      <c r="B97" s="145"/>
-      <c r="C97" s="145"/>
-      <c r="D97" s="145"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="145"/>
-      <c r="G97" s="146"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="155"/>
       <c r="H97" s="49"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -11726,15 +11726,15 @@
       <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="142" t="s">
+      <c r="A104" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="145"/>
-      <c r="C104" s="145"/>
-      <c r="D104" s="145"/>
-      <c r="E104" s="145"/>
-      <c r="F104" s="145"/>
-      <c r="G104" s="146"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="155"/>
       <c r="H104" s="49"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -12470,15 +12470,15 @@
       <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A125" s="142" t="s">
+      <c r="A125" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="B125" s="145"/>
-      <c r="C125" s="145"/>
-      <c r="D125" s="145"/>
-      <c r="E125" s="145"/>
-      <c r="F125" s="145"/>
-      <c r="G125" s="146"/>
+      <c r="B125" s="154"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="154"/>
+      <c r="E125" s="154"/>
+      <c r="F125" s="154"/>
+      <c r="G125" s="155"/>
       <c r="H125" s="49"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -15731,16 +15731,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A125:G125"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15771,15 +15771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -15835,7 +15835,7 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="161" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -15871,7 +15871,7 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="22" t="s">
         <v>189</v>
       </c>
@@ -15905,7 +15905,7 @@
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="158"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="22" t="s">
         <v>213</v>
       </c>
@@ -15939,7 +15939,7 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="158"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -15969,7 +15969,7 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="158"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="22" t="s">
         <v>185</v>
       </c>
@@ -15999,7 +15999,7 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="158"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="22" t="s">
         <v>184</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="22" t="s">
         <v>636</v>
       </c>
@@ -16059,7 +16059,7 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="22" t="s">
         <v>186</v>
       </c>
@@ -16089,7 +16089,7 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="158"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="22" t="s">
         <v>207</v>
       </c>
@@ -16119,7 +16119,7 @@
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="22" t="s">
         <v>202</v>
       </c>
@@ -16149,7 +16149,7 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="158"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="22" t="s">
         <v>204</v>
       </c>
@@ -16179,7 +16179,7 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="31" t="s">
         <v>205</v>
       </c>
@@ -16209,7 +16209,7 @@
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="164" t="s">
         <v>206</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -16245,7 +16245,7 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="22" t="s">
         <v>189</v>
       </c>
@@ -16279,7 +16279,7 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="22" t="s">
         <v>213</v>
       </c>
@@ -16313,7 +16313,7 @@
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="22" t="s">
         <v>180</v>
       </c>
@@ -16343,7 +16343,7 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="161"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="22" t="s">
         <v>185</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="22" t="s">
         <v>184</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="22" t="s">
         <v>636</v>
       </c>
@@ -16433,7 +16433,7 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="22" t="s">
         <v>201</v>
       </c>
@@ -16463,7 +16463,7 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="161"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="22" t="s">
         <v>202</v>
       </c>
@@ -16493,7 +16493,7 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="161"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="161"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="22" t="s">
         <v>205</v>
       </c>
@@ -16553,7 +16553,7 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="156" t="s">
         <v>208</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -16589,7 +16589,7 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="163"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="27" t="s">
         <v>212</v>
       </c>
@@ -16623,7 +16623,7 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="163"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="27" t="s">
         <v>214</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="163"/>
+      <c r="A29" s="157"/>
       <c r="B29" s="22" t="s">
         <v>242</v>
       </c>
@@ -16687,7 +16687,7 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="163"/>
+      <c r="A30" s="157"/>
       <c r="B30" s="22" t="s">
         <v>243</v>
       </c>
@@ -16717,7 +16717,7 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="163"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="22" t="s">
         <v>184</v>
       </c>
@@ -16747,7 +16747,7 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="163"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="22" t="s">
         <v>196</v>
       </c>
@@ -16777,7 +16777,7 @@
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="163"/>
+      <c r="A33" s="157"/>
       <c r="B33" s="22" t="s">
         <v>197</v>
       </c>
@@ -16807,7 +16807,7 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="163"/>
+      <c r="A34" s="157"/>
       <c r="B34" s="22" t="s">
         <v>198</v>
       </c>
@@ -16837,7 +16837,7 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="163"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="22" t="s">
         <v>215</v>
       </c>
@@ -16867,7 +16867,7 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="163"/>
+      <c r="A36" s="157"/>
       <c r="B36" s="22" t="s">
         <v>186</v>
       </c>
@@ -16897,7 +16897,7 @@
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="163"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="22" t="s">
         <v>216</v>
       </c>
@@ -16927,7 +16927,7 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="163"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="22" t="s">
         <v>217</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="163"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="22" t="s">
         <v>202</v>
       </c>
@@ -16987,7 +16987,7 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="163"/>
+      <c r="A40" s="157"/>
       <c r="B40" s="22" t="s">
         <v>204</v>
       </c>
@@ -17017,7 +17017,7 @@
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="164"/>
+      <c r="A41" s="158"/>
       <c r="B41" s="39" t="s">
         <v>205</v>
       </c>
@@ -17047,7 +17047,7 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="162" t="s">
+      <c r="A42" s="156" t="s">
         <v>237</v>
       </c>
       <c r="B42" s="44" t="s">
@@ -17079,7 +17079,7 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="164"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="39" t="s">
         <v>284</v>
       </c>
@@ -17109,7 +17109,7 @@
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="162" t="s">
+      <c r="A44" s="156" t="s">
         <v>238</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -17145,7 +17145,7 @@
       <c r="V44" s="5"/>
     </row>
     <row r="45" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="163"/>
+      <c r="A45" s="157"/>
       <c r="B45" s="27" t="s">
         <v>240</v>
       </c>
@@ -17179,7 +17179,7 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="163"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="27" t="s">
         <v>241</v>
       </c>
@@ -17213,7 +17213,7 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="163"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="22" t="s">
         <v>242</v>
       </c>
@@ -17243,7 +17243,7 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="163"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="22" t="s">
         <v>185</v>
       </c>
@@ -17273,7 +17273,7 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="163"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="22" t="s">
         <v>184</v>
       </c>
@@ -17303,7 +17303,7 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="163"/>
+      <c r="A50" s="157"/>
       <c r="B50" s="22" t="s">
         <v>196</v>
       </c>
@@ -17333,7 +17333,7 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="163"/>
+      <c r="A51" s="157"/>
       <c r="B51" s="22" t="s">
         <v>244</v>
       </c>
@@ -17363,7 +17363,7 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="163"/>
+      <c r="A52" s="157"/>
       <c r="B52" s="22" t="s">
         <v>634</v>
       </c>
@@ -17393,7 +17393,7 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="163"/>
+      <c r="A53" s="157"/>
       <c r="B53" s="22" t="s">
         <v>637</v>
       </c>
@@ -17423,7 +17423,7 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="163"/>
+      <c r="A54" s="157"/>
       <c r="B54" s="22" t="s">
         <v>638</v>
       </c>
@@ -17453,7 +17453,7 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="163"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="22" t="s">
         <v>633</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="163"/>
+      <c r="A56" s="157"/>
       <c r="B56" s="22" t="s">
         <v>204</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="164"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="39" t="s">
         <v>205</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="162" t="s">
+      <c r="A58" s="156" t="s">
         <v>260</v>
       </c>
       <c r="B58" s="36" t="s">
@@ -17579,7 +17579,7 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="163"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="27" t="s">
         <v>261</v>
       </c>
@@ -17613,7 +17613,7 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="163"/>
+      <c r="A60" s="157"/>
       <c r="B60" s="27" t="s">
         <v>263</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="163"/>
+      <c r="A61" s="157"/>
       <c r="B61" s="27" t="s">
         <v>476</v>
       </c>
@@ -17675,7 +17675,7 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="163"/>
+      <c r="A62" s="157"/>
       <c r="B62" s="27" t="s">
         <v>477</v>
       </c>
@@ -17703,7 +17703,7 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="163"/>
+      <c r="A63" s="157"/>
       <c r="B63" s="22" t="s">
         <v>204</v>
       </c>
@@ -17733,7 +17733,7 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="164"/>
+      <c r="A64" s="158"/>
       <c r="B64" s="40" t="s">
         <v>205</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="162" t="s">
+      <c r="A65" s="156" t="s">
         <v>264</v>
       </c>
       <c r="B65" s="44" t="s">
@@ -17793,7 +17793,7 @@
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="163"/>
+      <c r="A66" s="157"/>
       <c r="B66" s="22" t="s">
         <v>658</v>
       </c>
@@ -17821,7 +17821,7 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="163"/>
+      <c r="A67" s="157"/>
       <c r="B67" s="22" t="s">
         <v>204</v>
       </c>
@@ -17851,7 +17851,7 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="164"/>
+      <c r="A68" s="158"/>
       <c r="B68" s="40" t="s">
         <v>205</v>
       </c>
@@ -17881,7 +17881,7 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="162" t="s">
+      <c r="A69" s="156" t="s">
         <v>266</v>
       </c>
       <c r="B69" s="44" t="s">
@@ -17911,7 +17911,7 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="163"/>
+      <c r="A70" s="157"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -17939,7 +17939,7 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="163"/>
+      <c r="A71" s="157"/>
       <c r="B71" s="22" t="s">
         <v>278</v>
       </c>
@@ -17967,7 +17967,7 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="163"/>
+      <c r="A72" s="157"/>
       <c r="B72" s="22" t="s">
         <v>279</v>
       </c>
@@ -17995,7 +17995,7 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="163"/>
+      <c r="A73" s="157"/>
       <c r="B73" s="22" t="s">
         <v>641</v>
       </c>
@@ -18025,7 +18025,7 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="163"/>
+      <c r="A74" s="157"/>
       <c r="B74" s="22" t="s">
         <v>642</v>
       </c>
@@ -18055,7 +18055,7 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A75" s="164"/>
+      <c r="A75" s="158"/>
       <c r="B75" s="35" t="s">
         <v>280</v>
       </c>
@@ -18083,7 +18083,7 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="162" t="s">
+      <c r="A76" s="156" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="36" t="s">
@@ -18119,7 +18119,7 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="163"/>
+      <c r="A77" s="157"/>
       <c r="B77" s="27" t="s">
         <v>268</v>
       </c>
@@ -18153,7 +18153,7 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="163"/>
+      <c r="A78" s="157"/>
       <c r="B78" s="22" t="s">
         <v>180</v>
       </c>
@@ -18183,7 +18183,7 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A79" s="163"/>
+      <c r="A79" s="157"/>
       <c r="B79" s="22" t="s">
         <v>185</v>
       </c>
@@ -18213,7 +18213,7 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="163"/>
+      <c r="A80" s="157"/>
       <c r="B80" s="22" t="s">
         <v>184</v>
       </c>
@@ -18243,7 +18243,7 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="163"/>
+      <c r="A81" s="157"/>
       <c r="B81" s="22" t="s">
         <v>636</v>
       </c>
@@ -18273,7 +18273,7 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="163"/>
+      <c r="A82" s="157"/>
       <c r="B82" s="22" t="s">
         <v>186</v>
       </c>
@@ -18303,7 +18303,7 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="163"/>
+      <c r="A83" s="157"/>
       <c r="B83" s="22" t="s">
         <v>216</v>
       </c>
@@ -18333,7 +18333,7 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="163"/>
+      <c r="A84" s="157"/>
       <c r="B84" s="22" t="s">
         <v>217</v>
       </c>
@@ -18363,7 +18363,7 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="163"/>
+      <c r="A85" s="157"/>
       <c r="B85" s="22" t="s">
         <v>215</v>
       </c>
@@ -18393,7 +18393,7 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="163"/>
+      <c r="A86" s="157"/>
       <c r="B86" s="22" t="s">
         <v>202</v>
       </c>
@@ -18423,7 +18423,7 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="163"/>
+      <c r="A87" s="157"/>
       <c r="B87" s="22" t="s">
         <v>204</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="165"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="35" t="s">
         <v>205</v>
       </c>
@@ -21700,16 +21700,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A57"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="A76:A88"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27910,12 +27910,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="186" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -27947,14 +27947,14 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="194" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -27972,12 +27972,12 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="183"/>
-      <c r="B4" s="193" t="s">
+      <c r="A4" s="195"/>
+      <c r="B4" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="194"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -27995,7 +27995,7 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="118" t="s">
         <v>556</v>
       </c>
@@ -28020,12 +28020,12 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
-      <c r="B6" s="179" t="s">
+      <c r="A6" s="195"/>
+      <c r="B6" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -28043,7 +28043,7 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="119" t="s">
         <v>607</v>
       </c>
@@ -28070,7 +28070,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="183"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="120" t="s">
         <v>554</v>
       </c>
@@ -28097,7 +28097,7 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="120" t="s">
         <v>555</v>
       </c>
@@ -28124,7 +28124,7 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="119" t="s">
         <v>48</v>
       </c>
@@ -28151,7 +28151,7 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="183"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="119" t="s">
         <v>49</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="120" t="s">
         <v>50</v>
       </c>
@@ -28203,10 +28203,10 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -28224,12 +28224,12 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
-      <c r="B14" s="176" t="s">
+      <c r="A14" s="195"/>
+      <c r="B14" s="188" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -28247,12 +28247,12 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="179" t="s">
+      <c r="A15" s="195"/>
+      <c r="B15" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -28270,7 +28270,7 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="118" t="s">
         <v>556</v>
       </c>
@@ -28295,7 +28295,7 @@
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="119" t="s">
         <v>607</v>
       </c>
@@ -28320,7 +28320,7 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="195"/>
       <c r="B18" s="119" t="s">
         <v>49</v>
       </c>
@@ -28347,12 +28347,12 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="183"/>
-      <c r="B19" s="179" t="s">
+      <c r="A19" s="195"/>
+      <c r="B19" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -28370,7 +28370,7 @@
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="183"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="120" t="s">
         <v>554</v>
       </c>
@@ -28397,7 +28397,7 @@
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="120" t="s">
         <v>555</v>
       </c>
@@ -28424,7 +28424,7 @@
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="119" t="s">
         <v>48</v>
       </c>
@@ -28451,7 +28451,7 @@
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" s="89" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="183"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="120" t="s">
         <v>50</v>
       </c>
@@ -28478,10 +28478,10 @@
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -28499,12 +28499,12 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="176" t="s">
+      <c r="A25" s="195"/>
+      <c r="B25" s="188" t="s">
         <v>558</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="190"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -28522,12 +28522,12 @@
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
-      <c r="B26" s="179" t="s">
+      <c r="A26" s="195"/>
+      <c r="B26" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="181"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="193"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -28545,7 +28545,7 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="120" t="s">
         <v>559</v>
       </c>
@@ -28570,12 +28570,12 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="179" t="s">
+      <c r="A28" s="195"/>
+      <c r="B28" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="181"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="193"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -28593,7 +28593,7 @@
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:19" s="89" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="120" t="s">
         <v>560</v>
       </c>
@@ -28620,7 +28620,7 @@
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="195"/>
       <c r="B30" s="120" t="s">
         <v>561</v>
       </c>
@@ -28647,7 +28647,7 @@
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="120" t="s">
         <v>597</v>
       </c>
@@ -28674,7 +28674,7 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
+      <c r="A32" s="195"/>
       <c r="B32" s="120" t="s">
         <v>555</v>
       </c>
@@ -28701,7 +28701,7 @@
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="195"/>
       <c r="B33" s="119" t="s">
         <v>49</v>
       </c>
@@ -28726,10 +28726,10 @@
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="A34" s="195"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -28747,7 +28747,7 @@
       <c r="S34" s="5"/>
     </row>
     <row r="35" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="183"/>
+      <c r="A35" s="195"/>
       <c r="B35" s="120" t="s">
         <v>567</v>
       </c>
@@ -28772,7 +28772,7 @@
       <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
+      <c r="A36" s="195"/>
       <c r="B36" s="120" t="s">
         <v>569</v>
       </c>
@@ -28797,7 +28797,7 @@
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="195"/>
       <c r="B37" s="120" t="s">
         <v>570</v>
       </c>
@@ -28824,7 +28824,7 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="195"/>
       <c r="B38" s="120" t="s">
         <v>571</v>
       </c>
@@ -28849,7 +28849,7 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
+      <c r="A39" s="195"/>
       <c r="B39" s="120" t="s">
         <v>572</v>
       </c>
@@ -28874,7 +28874,7 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
+      <c r="A40" s="195"/>
       <c r="B40" s="120" t="s">
         <v>573</v>
       </c>
@@ -28899,7 +28899,7 @@
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="195"/>
       <c r="B41" s="120" t="s">
         <v>574</v>
       </c>
@@ -28924,7 +28924,7 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="195"/>
       <c r="B42" s="120" t="s">
         <v>575</v>
       </c>
@@ -28949,10 +28949,10 @@
       <c r="S42" s="5"/>
     </row>
     <row r="43" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="197"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="176"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -28970,7 +28970,7 @@
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="183"/>
+      <c r="A44" s="195"/>
       <c r="B44" s="121" t="s">
         <v>564</v>
       </c>
@@ -28995,7 +28995,7 @@
       <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="195"/>
       <c r="B45" s="121" t="s">
         <v>568</v>
       </c>
@@ -29020,7 +29020,7 @@
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="195"/>
       <c r="B46" s="121" t="s">
         <v>563</v>
       </c>
@@ -29045,7 +29045,7 @@
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="183"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="120" t="s">
         <v>562</v>
       </c>
@@ -29070,7 +29070,7 @@
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="183"/>
+      <c r="A48" s="195"/>
       <c r="B48" s="120" t="s">
         <v>565</v>
       </c>
@@ -29095,7 +29095,7 @@
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="195"/>
       <c r="B49" s="132" t="s">
         <v>566</v>
       </c>
@@ -29120,7 +29120,7 @@
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="128"/>
       <c r="C50" s="129"/>
       <c r="D50" s="130"/>
@@ -29141,14 +29141,14 @@
       <c r="S50" s="5"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="177" t="s">
         <v>577</v>
       </c>
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="180" t="s">
         <v>579</v>
       </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="190"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -29166,7 +29166,7 @@
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="186"/>
+      <c r="A52" s="197"/>
       <c r="B52" s="122" t="s">
         <v>595</v>
       </c>
@@ -29191,7 +29191,7 @@
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
+      <c r="A53" s="197"/>
       <c r="B53" s="122" t="s">
         <v>596</v>
       </c>
@@ -29216,7 +29216,7 @@
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="186"/>
+      <c r="A54" s="197"/>
       <c r="B54" s="122" t="s">
         <v>580</v>
       </c>
@@ -29243,7 +29243,7 @@
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
+      <c r="A55" s="197"/>
       <c r="B55" s="123" t="s">
         <v>599</v>
       </c>
@@ -29270,7 +29270,7 @@
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
+      <c r="A56" s="197"/>
       <c r="B56" s="123" t="s">
         <v>600</v>
       </c>
@@ -29297,7 +29297,7 @@
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="186"/>
+      <c r="A57" s="197"/>
       <c r="B57" s="123" t="s">
         <v>601</v>
       </c>
@@ -29324,7 +29324,7 @@
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
+      <c r="A58" s="197"/>
       <c r="B58" s="122" t="s">
         <v>598</v>
       </c>
@@ -29349,7 +29349,7 @@
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="186"/>
+      <c r="A59" s="197"/>
       <c r="B59" s="122" t="s">
         <v>602</v>
       </c>
@@ -29376,10 +29376,10 @@
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
-      <c r="B60" s="198"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="200"/>
+      <c r="A60" s="197"/>
+      <c r="B60" s="183"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="185"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -29397,7 +29397,7 @@
       <c r="S60" s="5"/>
     </row>
     <row r="61" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
+      <c r="A61" s="197"/>
       <c r="B61" s="122" t="s">
         <v>578</v>
       </c>
@@ -29422,7 +29422,7 @@
       <c r="S61" s="5"/>
     </row>
     <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="186"/>
+      <c r="A62" s="197"/>
       <c r="B62" s="122" t="s">
         <v>581</v>
       </c>
@@ -29447,7 +29447,7 @@
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="186"/>
+      <c r="A63" s="197"/>
       <c r="B63" s="122" t="s">
         <v>568</v>
       </c>
@@ -29472,7 +29472,7 @@
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="186"/>
+      <c r="A64" s="197"/>
       <c r="B64" s="122" t="s">
         <v>582</v>
       </c>
@@ -29497,7 +29497,7 @@
       <c r="S64" s="5"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
+      <c r="A65" s="197"/>
       <c r="B65" s="122" t="s">
         <v>583</v>
       </c>
@@ -29524,7 +29524,7 @@
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="187"/>
+      <c r="A66" s="198"/>
       <c r="B66" s="124"/>
       <c r="C66" s="125"/>
       <c r="D66" s="126"/>
@@ -29545,14 +29545,14 @@
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="185" t="s">
+      <c r="A67" s="177" t="s">
         <v>584</v>
       </c>
-      <c r="B67" s="188" t="s">
+      <c r="B67" s="180" t="s">
         <v>586</v>
       </c>
-      <c r="C67" s="189"/>
-      <c r="D67" s="190"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -29570,7 +29570,7 @@
       <c r="S67" s="5"/>
     </row>
     <row r="68" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="201"/>
+      <c r="A68" s="178"/>
       <c r="B68" s="122" t="s">
         <v>594</v>
       </c>
@@ -29595,7 +29595,7 @@
       <c r="S68" s="5"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="201"/>
+      <c r="A69" s="178"/>
       <c r="B69" s="122" t="s">
         <v>593</v>
       </c>
@@ -29620,7 +29620,7 @@
       <c r="S69" s="5"/>
     </row>
     <row r="70" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="201"/>
+      <c r="A70" s="178"/>
       <c r="B70" s="122" t="s">
         <v>587</v>
       </c>
@@ -29645,7 +29645,7 @@
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="201"/>
+      <c r="A71" s="178"/>
       <c r="B71" s="122" t="s">
         <v>598</v>
       </c>
@@ -29672,7 +29672,7 @@
       <c r="S71" s="5"/>
     </row>
     <row r="72" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="201"/>
+      <c r="A72" s="178"/>
       <c r="B72" s="122" t="s">
         <v>602</v>
       </c>
@@ -29699,7 +29699,7 @@
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="201"/>
+      <c r="A73" s="178"/>
       <c r="B73" s="123" t="s">
         <v>561</v>
       </c>
@@ -29726,7 +29726,7 @@
       <c r="S73" s="5"/>
     </row>
     <row r="74" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="201"/>
+      <c r="A74" s="178"/>
       <c r="B74" s="123" t="s">
         <v>554</v>
       </c>
@@ -29753,7 +29753,7 @@
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="201"/>
+      <c r="A75" s="178"/>
       <c r="B75" s="123" t="s">
         <v>555</v>
       </c>
@@ -29780,10 +29780,10 @@
       <c r="S75" s="5"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="201"/>
-      <c r="B76" s="198"/>
-      <c r="C76" s="199"/>
-      <c r="D76" s="200"/>
+      <c r="A76" s="178"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="185"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -29801,7 +29801,7 @@
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="201"/>
+      <c r="A77" s="178"/>
       <c r="B77" s="122" t="s">
         <v>588</v>
       </c>
@@ -29826,7 +29826,7 @@
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="201"/>
+      <c r="A78" s="178"/>
       <c r="B78" s="122" t="s">
         <v>568</v>
       </c>
@@ -29851,7 +29851,7 @@
       <c r="S78" s="5"/>
     </row>
     <row r="79" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="201"/>
+      <c r="A79" s="178"/>
       <c r="B79" s="122" t="s">
         <v>589</v>
       </c>
@@ -29876,7 +29876,7 @@
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="202"/>
+      <c r="A80" s="179"/>
       <c r="B80" s="127"/>
       <c r="C80" s="125"/>
       <c r="D80" s="126"/>
@@ -33636,11 +33636,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A67:A80"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
@@ -33657,6 +33652,11 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A67:A80"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Примеры.xlsx
+++ b/Примеры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yana\Документы\GitHub\qa_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA80742A-4E1C-4437-B037-41F1D19713AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F5BF0-D5EB-413A-8A15-E0411129DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,9 +512,6 @@
 Я применяла и то, и другое во время выполнения заданий в Яндекс.Практикуме. Сначала писала чек-лист, затем по чек-листу создавала тест-кейсы. Такой подход помогает не упустить важные проверки. </t>
   </si>
   <si>
-    <t>Статус заказа</t>
-  </si>
-  <si>
     <t>ID Баг-репорта</t>
   </si>
   <si>
@@ -2650,6 +2647,9 @@
   </si>
   <si>
     <t>ссылка на mindmap в Miro</t>
+  </si>
+  <si>
+    <t>Чек-лист "Статус заказа"</t>
   </si>
 </sst>
 </file>
@@ -4094,6 +4094,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4109,9 +4124,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4123,30 +4135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4164,6 +4152,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,42 +4188,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4259,11 +4223,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4276,6 +4252,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5642,7 +5642,7 @@
     </row>
     <row r="57" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="165.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5674,7 +5674,7 @@
     </row>
     <row r="59" spans="1:23" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="141" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="98.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5706,7 +5706,7 @@
     </row>
     <row r="61" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="108.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7112,7 +7112,7 @@
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>85</v>
@@ -8133,7 +8133,7 @@
   <dimension ref="A1:V253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8150,15 +8150,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="A1" s="147" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -8183,22 +8183,22 @@
         <v>33</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>286</v>
-      </c>
       <c r="E2" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>293</v>
-      </c>
       <c r="G2" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -8216,13 +8216,13 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="146"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="49"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>37</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>16</v>
@@ -8295,7 +8295,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="5"/>
@@ -8315,10 +8315,10 @@
     </row>
     <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>37</v>
@@ -8351,10 +8351,10 @@
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>37</v>
@@ -8387,10 +8387,10 @@
     </row>
     <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>37</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>37</v>
@@ -8459,10 +8459,10 @@
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="61" t="s">
         <v>37</v>
@@ -8495,10 +8495,10 @@
     </row>
     <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>37</v>
@@ -8531,10 +8531,10 @@
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>37</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>37</v>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>37</v>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>37</v>
@@ -8711,10 +8711,10 @@
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>16</v>
@@ -8729,7 +8729,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="5"/>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="18" spans="1:22" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>37</v>
@@ -8785,10 +8785,10 @@
     </row>
     <row r="19" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>37</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>37</v>
@@ -8857,10 +8857,10 @@
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>37</v>
@@ -8893,10 +8893,10 @@
     </row>
     <row r="22" spans="1:22" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>37</v>
@@ -8929,10 +8929,10 @@
     </row>
     <row r="23" spans="1:22" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="61" t="s">
         <v>37</v>
@@ -8965,10 +8965,10 @@
     </row>
     <row r="24" spans="1:22" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>16</v>
@@ -8983,7 +8983,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="47"/>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="25" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="61" t="s">
         <v>37</v>
@@ -9039,10 +9039,10 @@
     </row>
     <row r="26" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>37</v>
@@ -9075,10 +9075,10 @@
     </row>
     <row r="27" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>37</v>
@@ -9111,10 +9111,10 @@
     </row>
     <row r="28" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>16</v>
@@ -9129,7 +9129,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="5"/>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="29" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="61" t="s">
         <v>37</v>
@@ -9171,10 +9171,10 @@
     </row>
     <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>16</v>
@@ -9189,7 +9189,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="5"/>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="31" spans="1:22" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>16</v>
@@ -9227,7 +9227,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H31" s="49"/>
       <c r="I31" s="5"/>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="32" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>16</v>
@@ -9265,7 +9265,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="5"/>
@@ -9285,10 +9285,10 @@
     </row>
     <row r="33" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>37</v>
@@ -9321,10 +9321,10 @@
     </row>
     <row r="34" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>16</v>
@@ -9339,7 +9339,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="5"/>
@@ -9359,10 +9359,10 @@
     </row>
     <row r="35" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>37</v>
@@ -9395,10 +9395,10 @@
     </row>
     <row r="36" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>16</v>
@@ -9413,7 +9413,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="5"/>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="37" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>37</v>
@@ -9469,10 +9469,10 @@
     </row>
     <row r="38" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>16</v>
@@ -9487,7 +9487,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="5"/>
@@ -9507,10 +9507,10 @@
     </row>
     <row r="39" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="64" t="s">
         <v>16</v>
@@ -9525,7 +9525,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="5"/>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="40" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="64" t="s">
         <v>16</v>
@@ -9563,7 +9563,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="5"/>
@@ -9583,10 +9583,10 @@
     </row>
     <row r="41" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>37</v>
@@ -9619,10 +9619,10 @@
     </row>
     <row r="42" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>37</v>
@@ -9678,15 +9678,15 @@
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="147" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="149"/>
+      <c r="A44" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="49"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -9705,10 +9705,10 @@
     </row>
     <row r="45" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="61" t="s">
         <v>37</v>
@@ -9741,10 +9741,10 @@
     </row>
     <row r="46" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
         <v>37</v>
@@ -9777,10 +9777,10 @@
     </row>
     <row r="47" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="61" t="s">
         <v>37</v>
@@ -9813,10 +9813,10 @@
     </row>
     <row r="48" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C48" s="64" t="s">
         <v>16</v>
@@ -9831,10 +9831,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H48" s="86" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -9853,10 +9853,10 @@
     </row>
     <row r="49" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="61" t="s">
         <v>37</v>
@@ -9889,10 +9889,10 @@
     </row>
     <row r="50" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>16</v>
@@ -9907,10 +9907,10 @@
         <v>16</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H50" s="86" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -9929,10 +9929,10 @@
     </row>
     <row r="51" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>37</v>
@@ -9965,10 +9965,10 @@
     </row>
     <row r="52" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="61" t="s">
         <v>37</v>
@@ -10001,10 +10001,10 @@
     </row>
     <row r="53" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>37</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="54" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="61" t="s">
         <v>37</v>
@@ -10073,10 +10073,10 @@
     </row>
     <row r="55" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="61" t="s">
         <v>37</v>
@@ -10109,10 +10109,10 @@
     </row>
     <row r="56" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="61" t="s">
         <v>37</v>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="57" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="61" t="s">
         <v>37</v>
@@ -10204,15 +10204,15 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="147" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="151"/>
+      <c r="A59" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
       <c r="H59" s="49"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -10231,10 +10231,10 @@
     </row>
     <row r="60" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>37</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="61" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>37</v>
@@ -10303,10 +10303,10 @@
     </row>
     <row r="62" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="61" t="s">
         <v>37</v>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="63" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="61" t="s">
         <v>37</v>
@@ -10375,10 +10375,10 @@
     </row>
     <row r="64" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="61" t="s">
         <v>37</v>
@@ -10411,10 +10411,10 @@
     </row>
     <row r="65" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="61" t="s">
         <v>37</v>
@@ -10470,15 +10470,15 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="152"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="153"/>
+      <c r="A67" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="144"/>
       <c r="H67" s="49"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -10497,10 +10497,10 @@
     </row>
     <row r="68" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>37</v>
@@ -10533,10 +10533,10 @@
     </row>
     <row r="69" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="61" t="s">
         <v>37</v>
@@ -10569,10 +10569,10 @@
     </row>
     <row r="70" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="61" t="s">
         <v>37</v>
@@ -10605,10 +10605,10 @@
     </row>
     <row r="71" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" s="61" t="s">
         <v>37</v>
@@ -10641,10 +10641,10 @@
     </row>
     <row r="72" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C72" s="61" t="s">
         <v>37</v>
@@ -10677,10 +10677,10 @@
     </row>
     <row r="73" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>37</v>
@@ -10713,10 +10713,10 @@
     </row>
     <row r="74" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="61" t="s">
         <v>37</v>
@@ -10749,10 +10749,10 @@
     </row>
     <row r="75" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" s="61" t="s">
         <v>37</v>
@@ -10808,15 +10808,15 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="153"/>
+      <c r="A77" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="143"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="143"/>
+      <c r="G77" s="144"/>
       <c r="H77" s="49"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -10835,10 +10835,10 @@
     </row>
     <row r="78" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="64" t="s">
         <v>16</v>
@@ -10853,10 +10853,10 @@
         <v>16</v>
       </c>
       <c r="G78" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="52" t="s">
         <v>315</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>316</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -10875,10 +10875,10 @@
     </row>
     <row r="79" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="61" t="s">
         <v>37</v>
@@ -10911,10 +10911,10 @@
     </row>
     <row r="80" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>37</v>
@@ -10947,10 +10947,10 @@
     </row>
     <row r="81" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="61" t="s">
         <v>37</v>
@@ -10983,10 +10983,10 @@
     </row>
     <row r="82" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="61" t="s">
         <v>37</v>
@@ -11019,26 +11019,26 @@
     </row>
     <row r="83" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E83" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F83" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -11080,15 +11080,15 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="154"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="155"/>
+      <c r="A85" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="146"/>
       <c r="H85" s="49"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -11107,10 +11107,10 @@
     </row>
     <row r="86" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="61" t="s">
         <v>37</v>
@@ -11143,10 +11143,10 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="61" t="s">
         <v>37</v>
@@ -11179,10 +11179,10 @@
     </row>
     <row r="88" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B88" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>37</v>
@@ -11215,10 +11215,10 @@
     </row>
     <row r="89" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="61" t="s">
         <v>37</v>
@@ -11251,10 +11251,10 @@
     </row>
     <row r="90" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B90" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>37</v>
@@ -11287,10 +11287,10 @@
     </row>
     <row r="91" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>16</v>
@@ -11305,7 +11305,7 @@
         <v>16</v>
       </c>
       <c r="G91" s="65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H91" s="49"/>
       <c r="I91" s="5"/>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="92" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B92" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>37</v>
@@ -11361,10 +11361,10 @@
     </row>
     <row r="93" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B93" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>37</v>
@@ -11397,10 +11397,10 @@
     </row>
     <row r="94" spans="1:22" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>37</v>
@@ -11433,10 +11433,10 @@
     </row>
     <row r="95" spans="1:22" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>37</v>
@@ -11492,15 +11492,15 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="147" t="s">
-        <v>455</v>
-      </c>
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="155"/>
+      <c r="A97" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" s="145"/>
+      <c r="C97" s="145"/>
+      <c r="D97" s="145"/>
+      <c r="E97" s="145"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="146"/>
       <c r="H97" s="49"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -11519,10 +11519,10 @@
     </row>
     <row r="98" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C98" s="61" t="s">
         <v>37</v>
@@ -11555,10 +11555,10 @@
     </row>
     <row r="99" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C99" s="61" t="s">
         <v>37</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="100" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="64" t="s">
         <v>16</v>
@@ -11609,7 +11609,7 @@
         <v>16</v>
       </c>
       <c r="G100" s="62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H100" s="49"/>
       <c r="I100" s="5"/>
@@ -11629,26 +11629,26 @@
     </row>
     <row r="101" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F101" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G101" s="62"/>
       <c r="H101" s="86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -11667,10 +11667,10 @@
     </row>
     <row r="102" spans="1:22" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C102" s="61" t="s">
         <v>37</v>
@@ -11726,15 +11726,15 @@
       <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="155"/>
+      <c r="A104" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="145"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="145"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="145"/>
+      <c r="G104" s="146"/>
       <c r="H104" s="49"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -11753,10 +11753,10 @@
     </row>
     <row r="105" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" s="61" t="s">
         <v>37</v>
@@ -11789,10 +11789,10 @@
     </row>
     <row r="106" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="61" t="s">
         <v>37</v>
@@ -11825,10 +11825,10 @@
     </row>
     <row r="107" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="61" t="s">
         <v>37</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="108" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="61" t="s">
         <v>37</v>
@@ -11897,10 +11897,10 @@
     </row>
     <row r="109" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="61" t="s">
         <v>37</v>
@@ -11933,10 +11933,10 @@
     </row>
     <row r="110" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C110" s="61" t="s">
         <v>37</v>
@@ -11969,10 +11969,10 @@
     </row>
     <row r="111" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="61" t="s">
         <v>37</v>
@@ -12005,10 +12005,10 @@
     </row>
     <row r="112" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B112" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="61" t="s">
         <v>37</v>
@@ -12041,10 +12041,10 @@
     </row>
     <row r="113" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B113" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="61" t="s">
         <v>37</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="114" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B114" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="61" t="s">
         <v>37</v>
@@ -12113,10 +12113,10 @@
     </row>
     <row r="115" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B115" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C115" s="64" t="s">
         <v>16</v>
@@ -12131,7 +12131,7 @@
         <v>16</v>
       </c>
       <c r="G115" s="78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H115" s="49"/>
       <c r="I115" s="5"/>
@@ -12151,10 +12151,10 @@
     </row>
     <row r="116" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B116" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C116" s="61" t="s">
         <v>37</v>
@@ -12187,10 +12187,10 @@
     </row>
     <row r="117" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B117" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C117" s="61" t="s">
         <v>37</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="118" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B118" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C118" s="61" t="s">
         <v>37</v>
@@ -12259,10 +12259,10 @@
     </row>
     <row r="119" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B119" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C119" s="61" t="s">
         <v>37</v>
@@ -12295,10 +12295,10 @@
     </row>
     <row r="120" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B120" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C120" s="61" t="s">
         <v>37</v>
@@ -12331,10 +12331,10 @@
     </row>
     <row r="121" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="59" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C121" s="64" t="s">
         <v>16</v>
@@ -12349,7 +12349,7 @@
         <v>16</v>
       </c>
       <c r="G121" s="78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H121" s="49"/>
       <c r="I121" s="5"/>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="122" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C122" s="64" t="s">
         <v>16</v>
@@ -12387,10 +12387,10 @@
         <v>16</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H122" s="86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -12409,26 +12409,26 @@
     </row>
     <row r="123" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B123" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C123" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D123" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E123" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F123" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G123" s="62"/>
       <c r="H123" s="86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -12470,15 +12470,15 @@
       <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A125" s="147" t="s">
-        <v>173</v>
-      </c>
-      <c r="B125" s="154"/>
-      <c r="C125" s="154"/>
-      <c r="D125" s="154"/>
-      <c r="E125" s="154"/>
-      <c r="F125" s="154"/>
-      <c r="G125" s="155"/>
+      <c r="A125" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="145"/>
+      <c r="C125" s="145"/>
+      <c r="D125" s="145"/>
+      <c r="E125" s="145"/>
+      <c r="F125" s="145"/>
+      <c r="G125" s="146"/>
       <c r="H125" s="49"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -12497,10 +12497,10 @@
     </row>
     <row r="126" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B126" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C126" s="61" t="s">
         <v>37</v>
@@ -12533,10 +12533,10 @@
     </row>
     <row r="127" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B127" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C127" s="64" t="s">
         <v>16</v>
@@ -12551,7 +12551,7 @@
         <v>16</v>
       </c>
       <c r="G127" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H127" s="49"/>
       <c r="I127" s="5"/>
@@ -12571,10 +12571,10 @@
     </row>
     <row r="128" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B128" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C128" s="61" t="s">
         <v>37</v>
@@ -12607,10 +12607,10 @@
     </row>
     <row r="129" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B129" s="80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C129" s="61" t="s">
         <v>37</v>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="130" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B130" s="80" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C130" s="61" t="s">
         <v>37</v>
@@ -12679,10 +12679,10 @@
     </row>
     <row r="131" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B131" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C131" s="64" t="s">
         <v>16</v>
@@ -12697,7 +12697,7 @@
         <v>16</v>
       </c>
       <c r="G131" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H131" s="49"/>
       <c r="I131" s="5"/>
@@ -12717,10 +12717,10 @@
     </row>
     <row r="132" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B132" s="80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C132" s="61" t="s">
         <v>37</v>
@@ -12753,10 +12753,10 @@
     </row>
     <row r="133" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B133" s="80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C133" s="64" t="s">
         <v>16</v>
@@ -12771,7 +12771,7 @@
         <v>16</v>
       </c>
       <c r="G133" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H133" s="49"/>
       <c r="I133" s="5"/>
@@ -12791,10 +12791,10 @@
     </row>
     <row r="134" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B134" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C134" s="61" t="s">
         <v>37</v>
@@ -12827,10 +12827,10 @@
     </row>
     <row r="135" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C135" s="61" t="s">
         <v>37</v>
@@ -12863,10 +12863,10 @@
     </row>
     <row r="136" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B136" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C136" s="61" t="s">
         <v>37</v>
@@ -12899,10 +12899,10 @@
     </row>
     <row r="137" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B137" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C137" s="61" t="s">
         <v>37</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="138" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="B138" s="63" t="s">
         <v>460</v>
-      </c>
-      <c r="B138" s="63" t="s">
-        <v>461</v>
       </c>
       <c r="C138" s="61" t="s">
         <v>37</v>
@@ -15731,16 +15731,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A67:G67"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A67:G67"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15771,15 +15771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="A1" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -15835,11 +15835,11 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="157" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>60</v>
@@ -15848,10 +15848,10 @@
         <v>61</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="5"/>
@@ -15871,21 +15871,21 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="5"/>
@@ -15905,9 +15905,9 @@
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>60</v>
@@ -15916,10 +15916,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="5"/>
@@ -15939,16 +15939,16 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="55"/>
@@ -15969,16 +15969,16 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="55"/>
@@ -15999,16 +15999,16 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="55"/>
@@ -16029,16 +16029,16 @@
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="55"/>
@@ -16059,16 +16059,16 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="55"/>
@@ -16089,16 +16089,16 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="55"/>
@@ -16119,16 +16119,16 @@
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="162"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="55"/>
@@ -16149,16 +16149,16 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="55"/>
@@ -16179,16 +16179,16 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="163"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="136" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="56"/>
@@ -16209,11 +16209,11 @@
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="164" t="s">
-        <v>206</v>
+      <c r="A15" s="160" t="s">
+        <v>205</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>60</v>
@@ -16222,10 +16222,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="5"/>
@@ -16245,21 +16245,21 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="165"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="5"/>
@@ -16279,9 +16279,9 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="165"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>60</v>
@@ -16290,10 +16290,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="5"/>
@@ -16313,16 +16313,16 @@
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="165"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="55"/>
@@ -16343,16 +16343,16 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="165"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="55"/>
@@ -16373,16 +16373,16 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="165"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="55"/>
@@ -16403,16 +16403,16 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="165"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="55"/>
@@ -16433,16 +16433,16 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="165"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="55"/>
@@ -16463,16 +16463,16 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="165"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="55"/>
@@ -16493,16 +16493,16 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="165"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="55"/>
@@ -16523,16 +16523,16 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="165"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="55"/>
@@ -16553,23 +16553,23 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="156" t="s">
-        <v>208</v>
+      <c r="A26" s="162" t="s">
+        <v>207</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E26" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>221</v>
       </c>
       <c r="G26" s="57"/>
       <c r="H26" s="5"/>
@@ -16589,21 +16589,21 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="5"/>
@@ -16623,9 +16623,9 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>60</v>
@@ -16634,10 +16634,10 @@
         <v>51</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="5"/>
@@ -16657,16 +16657,16 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="55"/>
@@ -16687,16 +16687,16 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="55"/>
@@ -16717,16 +16717,16 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="55"/>
@@ -16747,16 +16747,16 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="55"/>
@@ -16777,16 +16777,16 @@
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="157"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="55"/>
@@ -16807,16 +16807,16 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="55"/>
@@ -16837,16 +16837,16 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="157"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="55"/>
@@ -16867,16 +16867,16 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="55"/>
@@ -16897,16 +16897,16 @@
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="55"/>
@@ -16927,16 +16927,16 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="157"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="55"/>
@@ -16957,16 +16957,16 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="157"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="55"/>
@@ -16987,16 +16987,16 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="157"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="55"/>
@@ -17017,16 +17017,16 @@
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="158"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="137" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="58"/>
@@ -17047,18 +17047,18 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="156" t="s">
-        <v>237</v>
+      <c r="A42" s="162" t="s">
+        <v>236</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="138" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="57"/>
@@ -17079,16 +17079,16 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="158"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="137" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F43" s="41"/>
       <c r="G43" s="58"/>
@@ -17109,23 +17109,23 @@
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="36" t="s">
         <v>238</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>239</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E44" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="42" t="s">
         <v>247</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>248</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="5"/>
@@ -17145,21 +17145,21 @@
       <c r="V44" s="5"/>
     </row>
     <row r="45" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="157"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E45" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="5"/>
@@ -17179,9 +17179,9 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="157"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>60</v>
@@ -17190,10 +17190,10 @@
         <v>13</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="5"/>
@@ -17213,16 +17213,16 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="157"/>
+      <c r="A47" s="163"/>
       <c r="B47" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="55"/>
@@ -17243,16 +17243,16 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="157"/>
+      <c r="A48" s="163"/>
       <c r="B48" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="55"/>
@@ -17273,16 +17273,16 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="157"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="55"/>
@@ -17303,16 +17303,16 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="157"/>
+      <c r="A50" s="163"/>
       <c r="B50" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="55"/>
@@ -17333,16 +17333,16 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="157"/>
+      <c r="A51" s="163"/>
       <c r="B51" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="55"/>
@@ -17363,16 +17363,16 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="157"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="55"/>
@@ -17393,16 +17393,16 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="157"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="55"/>
@@ -17423,16 +17423,16 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="157"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="55"/>
@@ -17453,16 +17453,16 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="157"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="55"/>
@@ -17483,16 +17483,16 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="157"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="55"/>
@@ -17513,16 +17513,16 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="158"/>
+      <c r="A57" s="164"/>
       <c r="B57" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="137" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="58"/>
@@ -17543,23 +17543,23 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="156" t="s">
-        <v>260</v>
+      <c r="A58" s="162" t="s">
+        <v>259</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="133" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E58" s="135">
         <v>44362</v>
       </c>
       <c r="F58" s="139" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G58" s="57"/>
       <c r="H58" s="5"/>
@@ -17579,21 +17579,21 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="157"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="134" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="5"/>
@@ -17613,21 +17613,21 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="157"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="134" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E60" s="140">
         <v>44369</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="5"/>
@@ -17647,12 +17647,12 @@
       <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="157"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="140"/>
@@ -17675,12 +17675,12 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="157"/>
+      <c r="A62" s="163"/>
       <c r="B62" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="140"/>
@@ -17703,12 +17703,12 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="157"/>
+      <c r="A63" s="163"/>
       <c r="B63" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="140">
@@ -17733,16 +17733,16 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="158"/>
+      <c r="A64" s="164"/>
       <c r="B64" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="137" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F64" s="41"/>
       <c r="G64" s="58"/>
@@ -17763,14 +17763,14 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="156" t="s">
-        <v>264</v>
+      <c r="A65" s="162" t="s">
+        <v>263</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
@@ -17793,12 +17793,12 @@
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="157"/>
+      <c r="A66" s="163"/>
       <c r="B66" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -17821,16 +17821,16 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="157"/>
+      <c r="A67" s="163"/>
       <c r="B67" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="55"/>
@@ -17851,16 +17851,16 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="158"/>
+      <c r="A68" s="164"/>
       <c r="B68" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="137" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F68" s="41"/>
       <c r="G68" s="58"/>
@@ -17881,14 +17881,14 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="156" t="s">
-        <v>266</v>
+      <c r="A69" s="162" t="s">
+        <v>265</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
@@ -17911,12 +17911,12 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="157"/>
+      <c r="A70" s="163"/>
       <c r="B70" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -17939,12 +17939,12 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="157"/>
+      <c r="A71" s="163"/>
       <c r="B71" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -17967,12 +17967,12 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="157"/>
+      <c r="A72" s="163"/>
       <c r="B72" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -17995,16 +17995,16 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="157"/>
+      <c r="A73" s="163"/>
       <c r="B73" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="55"/>
@@ -18025,16 +18025,16 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="157"/>
+      <c r="A74" s="163"/>
       <c r="B74" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="55"/>
@@ -18055,12 +18055,12 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A75" s="158"/>
+      <c r="A75" s="164"/>
       <c r="B75" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -18083,23 +18083,23 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="156" t="s">
+      <c r="A76" s="162" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" s="42" t="s">
         <v>269</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="F76" s="42" t="s">
-        <v>270</v>
       </c>
       <c r="G76" s="57"/>
       <c r="H76" s="5"/>
@@ -18119,9 +18119,9 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="157"/>
+      <c r="A77" s="163"/>
       <c r="B77" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>60</v>
@@ -18130,10 +18130,10 @@
         <v>25</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G77" s="55"/>
       <c r="H77" s="5"/>
@@ -18153,16 +18153,16 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="157"/>
+      <c r="A78" s="163"/>
       <c r="B78" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="55"/>
@@ -18183,16 +18183,16 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A79" s="157"/>
+      <c r="A79" s="163"/>
       <c r="B79" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="55"/>
@@ -18213,16 +18213,16 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="157"/>
+      <c r="A80" s="163"/>
       <c r="B80" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="55"/>
@@ -18243,16 +18243,16 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="157"/>
+      <c r="A81" s="163"/>
       <c r="B81" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="55"/>
@@ -18273,16 +18273,16 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="157"/>
+      <c r="A82" s="163"/>
       <c r="B82" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="55"/>
@@ -18303,16 +18303,16 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="157"/>
+      <c r="A83" s="163"/>
       <c r="B83" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="55"/>
@@ -18333,16 +18333,16 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="157"/>
+      <c r="A84" s="163"/>
       <c r="B84" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="55"/>
@@ -18363,16 +18363,16 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="157"/>
+      <c r="A85" s="163"/>
       <c r="B85" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="55"/>
@@ -18393,16 +18393,16 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="157"/>
+      <c r="A86" s="163"/>
       <c r="B86" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="55"/>
@@ -18423,16 +18423,16 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="157"/>
+      <c r="A87" s="163"/>
       <c r="B87" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="55"/>
@@ -18453,16 +18453,16 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="159"/>
+      <c r="A88" s="165"/>
       <c r="B88" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="137" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="56"/>
@@ -21700,16 +21700,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A44:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A76:A88"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A25"/>
     <mergeCell ref="A26:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A76:A88"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21747,7 +21747,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="172" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B1" s="173"/>
       <c r="C1" s="173"/>
@@ -21785,7 +21785,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" s="101" t="s">
         <v>6</v>
@@ -21821,7 +21821,7 @@
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="169" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="170"/>
@@ -21850,28 +21850,28 @@
     </row>
     <row r="4" spans="1:25" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>484</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>485</v>
-      </c>
       <c r="D4" s="92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G4" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="91"/>
@@ -21893,28 +21893,28 @@
     </row>
     <row r="5" spans="1:25" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>496</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>486</v>
-      </c>
       <c r="F5" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I5" s="94"/>
       <c r="J5" s="91"/>
@@ -21936,25 +21936,25 @@
     </row>
     <row r="6" spans="1:25" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G6" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H6" s="93"/>
       <c r="I6" s="94"/>
@@ -21977,25 +21977,25 @@
     </row>
     <row r="7" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G7" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H7" s="93"/>
       <c r="I7" s="94"/>
@@ -22018,25 +22018,25 @@
     </row>
     <row r="8" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D8" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="92" t="s">
-        <v>492</v>
-      </c>
       <c r="F8" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" s="93"/>
       <c r="I8" s="94"/>
@@ -22059,25 +22059,25 @@
     </row>
     <row r="9" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="92" t="s">
         <v>493</v>
       </c>
-      <c r="E9" s="92" t="s">
-        <v>494</v>
-      </c>
       <c r="F9" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="94"/>
@@ -22100,28 +22100,28 @@
     </row>
     <row r="10" spans="1:25" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I10" s="94"/>
       <c r="J10" s="91"/>
@@ -22143,22 +22143,22 @@
     </row>
     <row r="11" spans="1:25" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>37</v>
@@ -22184,28 +22184,28 @@
     </row>
     <row r="12" spans="1:25" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D12" s="92" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>501</v>
-      </c>
       <c r="F12" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G12" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I12" s="94"/>
       <c r="J12" s="91"/>
@@ -22227,22 +22227,22 @@
     </row>
     <row r="13" spans="1:25" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G13" s="107" t="s">
         <v>37</v>
@@ -22268,22 +22268,22 @@
     </row>
     <row r="14" spans="1:25" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A14" s="104" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G14" s="107" t="s">
         <v>37</v>
@@ -22309,22 +22309,22 @@
     </row>
     <row r="15" spans="1:25" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A15" s="104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G15" s="107" t="s">
         <v>37</v>
@@ -22350,22 +22350,22 @@
     </row>
     <row r="16" spans="1:25" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A16" s="104" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G16" s="107" t="s">
         <v>37</v>
@@ -22391,22 +22391,22 @@
     </row>
     <row r="17" spans="1:25" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A17" s="104" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D17" s="92" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="E17" s="92" t="s">
-        <v>513</v>
-      </c>
       <c r="F17" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G17" s="107" t="s">
         <v>37</v>
@@ -22459,7 +22459,7 @@
     </row>
     <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="167"/>
       <c r="C19" s="167"/>
@@ -22488,22 +22488,22 @@
     </row>
     <row r="20" spans="1:25" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>602</v>
+      </c>
+      <c r="E20" s="92" t="s">
         <v>544</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>603</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>545</v>
-      </c>
       <c r="F20" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G20" s="107" t="s">
         <v>37</v>
@@ -22529,28 +22529,28 @@
     </row>
     <row r="21" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="105" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I21" s="94"/>
       <c r="J21" s="91"/>
@@ -22572,22 +22572,22 @@
     </row>
     <row r="22" spans="1:25" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A22" s="104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E22" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F22" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22" s="107" t="s">
         <v>37</v>
@@ -22613,22 +22613,22 @@
     </row>
     <row r="23" spans="1:25" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A23" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G23" s="107" t="s">
         <v>37</v>
@@ -22654,22 +22654,22 @@
     </row>
     <row r="24" spans="1:25" ht="114" x14ac:dyDescent="0.2">
       <c r="A24" s="104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G24" s="107" t="s">
         <v>37</v>
@@ -27910,12 +27910,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
-        <v>585</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
+      <c r="A1" s="174" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -27947,14 +27947,14 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="194" t="s">
-        <v>576</v>
-      </c>
-      <c r="B3" s="199" t="s">
+      <c r="A3" s="182" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -27972,12 +27972,12 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="195"/>
-      <c r="B4" s="201" t="s">
+      <c r="A4" s="183"/>
+      <c r="B4" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="202"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -27995,9 +27995,9 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="195"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" s="113" t="s">
         <v>37</v>
@@ -28020,12 +28020,12 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="195"/>
-      <c r="B6" s="191" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="181"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -28043,15 +28043,15 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="195"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="119" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C7" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -28070,15 +28070,15 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="195"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="120" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="131" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -28097,15 +28097,15 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="195"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C9" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -28124,7 +28124,7 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="195"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="119" t="s">
         <v>48</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -28151,7 +28151,7 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="195"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="119" t="s">
         <v>49</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="195"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="120" t="s">
         <v>50</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E12" s="112"/>
       <c r="F12" s="5"/>
@@ -28203,10 +28203,10 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -28224,12 +28224,12 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="195"/>
-      <c r="B14" s="188" t="s">
-        <v>557</v>
-      </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="176" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -28247,12 +28247,12 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="195"/>
-      <c r="B15" s="191" t="s">
+      <c r="A15" s="183"/>
+      <c r="B15" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -28270,9 +28270,9 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="195"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C16" s="113" t="s">
         <v>37</v>
@@ -28295,9 +28295,9 @@
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="195"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="119" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C17" s="113" t="s">
         <v>37</v>
@@ -28320,7 +28320,7 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="195"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="119" t="s">
         <v>49</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -28347,12 +28347,12 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="195"/>
-      <c r="B19" s="191" t="s">
+      <c r="A19" s="183"/>
+      <c r="B19" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -28370,15 +28370,15 @@
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="195"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="120" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C20" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="116" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -28397,15 +28397,15 @@
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="195"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C21" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -28424,7 +28424,7 @@
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="195"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="119" t="s">
         <v>48</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="116" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -28451,7 +28451,7 @@
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" s="89" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="195"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="120" t="s">
         <v>50</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="117" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -28478,10 +28478,10 @@
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="195"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -28499,12 +28499,12 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="195"/>
-      <c r="B25" s="188" t="s">
-        <v>558</v>
-      </c>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="176" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -28522,12 +28522,12 @@
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="195"/>
-      <c r="B26" s="191" t="s">
+      <c r="A26" s="183"/>
+      <c r="B26" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -28545,9 +28545,9 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="120" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C27" s="113" t="s">
         <v>37</v>
@@ -28570,12 +28570,12 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
-      <c r="B28" s="191" t="s">
+      <c r="A28" s="183"/>
+      <c r="B28" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="181"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -28593,15 +28593,15 @@
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:19" s="89" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="195"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="120" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C29" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -28620,15 +28620,15 @@
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="195"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="120" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C30" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="117" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -28647,15 +28647,15 @@
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="195"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C31" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="131" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -28674,15 +28674,15 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C32" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -28701,7 +28701,7 @@
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="195"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="119" t="s">
         <v>49</v>
       </c>
@@ -28726,10 +28726,10 @@
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="195"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="197"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -28747,9 +28747,9 @@
       <c r="S34" s="5"/>
     </row>
     <row r="35" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="195"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="120" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C35" s="113" t="s">
         <v>37</v>
@@ -28772,9 +28772,9 @@
       <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="195"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>37</v>
@@ -28797,15 +28797,15 @@
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="195"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="120" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C37" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -28824,9 +28824,9 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="195"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C38" s="113" t="s">
         <v>37</v>
@@ -28849,9 +28849,9 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C39" s="113" t="s">
         <v>37</v>
@@ -28874,9 +28874,9 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="195"/>
+      <c r="A40" s="183"/>
       <c r="B40" s="120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C40" s="113" t="s">
         <v>37</v>
@@ -28899,9 +28899,9 @@
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="195"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C41" s="113" t="s">
         <v>37</v>
@@ -28924,9 +28924,9 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="195"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C42" s="113" t="s">
         <v>37</v>
@@ -28949,10 +28949,10 @@
       <c r="S42" s="5"/>
     </row>
     <row r="43" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="195"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="197"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -28970,9 +28970,9 @@
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="195"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="121" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C44" s="113" t="s">
         <v>37</v>
@@ -28995,9 +28995,9 @@
       <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="195"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="121" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C45" s="113" t="s">
         <v>37</v>
@@ -29020,9 +29020,9 @@
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="195"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="121" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C46" s="113" t="s">
         <v>37</v>
@@ -29045,9 +29045,9 @@
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="195"/>
+      <c r="A47" s="183"/>
       <c r="B47" s="120" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C47" s="113" t="s">
         <v>37</v>
@@ -29070,9 +29070,9 @@
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="195"/>
+      <c r="A48" s="183"/>
       <c r="B48" s="120" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C48" s="113" t="s">
         <v>37</v>
@@ -29095,9 +29095,9 @@
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="195"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="132" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C49" s="113" t="s">
         <v>37</v>
@@ -29120,7 +29120,7 @@
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="196"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="128"/>
       <c r="C50" s="129"/>
       <c r="D50" s="130"/>
@@ -29141,14 +29141,14 @@
       <c r="S50" s="5"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="177" t="s">
-        <v>577</v>
-      </c>
-      <c r="B51" s="180" t="s">
-        <v>579</v>
-      </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="182"/>
+      <c r="A51" s="185" t="s">
+        <v>576</v>
+      </c>
+      <c r="B51" s="188" t="s">
+        <v>578</v>
+      </c>
+      <c r="C51" s="189"/>
+      <c r="D51" s="190"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -29166,9 +29166,9 @@
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="197"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="122" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C52" s="113" t="s">
         <v>37</v>
@@ -29191,9 +29191,9 @@
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="197"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="122" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C53" s="113" t="s">
         <v>37</v>
@@ -29216,15 +29216,15 @@
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="197"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="122" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C54" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -29243,15 +29243,15 @@
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="197"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="123" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C55" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -29270,15 +29270,15 @@
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="197"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="123" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C56" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -29297,15 +29297,15 @@
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="197"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="123" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C57" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="116" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -29324,9 +29324,9 @@
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="197"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C58" s="113" t="s">
         <v>37</v>
@@ -29349,15 +29349,15 @@
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="197"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="122" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C59" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="131" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -29376,10 +29376,10 @@
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="197"/>
-      <c r="B60" s="183"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="185"/>
+      <c r="A60" s="186"/>
+      <c r="B60" s="198"/>
+      <c r="C60" s="199"/>
+      <c r="D60" s="200"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -29397,9 +29397,9 @@
       <c r="S60" s="5"/>
     </row>
     <row r="61" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="197"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="122" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C61" s="113" t="s">
         <v>37</v>
@@ -29422,9 +29422,9 @@
       <c r="S61" s="5"/>
     </row>
     <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="197"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="122" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C62" s="113" t="s">
         <v>37</v>
@@ -29447,9 +29447,9 @@
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="197"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="122" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C63" s="113" t="s">
         <v>37</v>
@@ -29472,9 +29472,9 @@
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="197"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="122" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C64" s="113" t="s">
         <v>37</v>
@@ -29497,15 +29497,15 @@
       <c r="S64" s="5"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="197"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C65" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="116" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -29524,7 +29524,7 @@
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="198"/>
+      <c r="A66" s="187"/>
       <c r="B66" s="124"/>
       <c r="C66" s="125"/>
       <c r="D66" s="126"/>
@@ -29545,14 +29545,14 @@
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="177" t="s">
-        <v>584</v>
-      </c>
-      <c r="B67" s="180" t="s">
-        <v>586</v>
-      </c>
-      <c r="C67" s="181"/>
-      <c r="D67" s="182"/>
+      <c r="A67" s="185" t="s">
+        <v>583</v>
+      </c>
+      <c r="B67" s="188" t="s">
+        <v>585</v>
+      </c>
+      <c r="C67" s="189"/>
+      <c r="D67" s="190"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -29570,9 +29570,9 @@
       <c r="S67" s="5"/>
     </row>
     <row r="68" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="178"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="122" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C68" s="113" t="s">
         <v>37</v>
@@ -29595,9 +29595,9 @@
       <c r="S68" s="5"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="178"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="122" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C69" s="113" t="s">
         <v>37</v>
@@ -29620,9 +29620,9 @@
       <c r="S69" s="5"/>
     </row>
     <row r="70" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="178"/>
+      <c r="A70" s="201"/>
       <c r="B70" s="122" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C70" s="113" t="s">
         <v>37</v>
@@ -29645,15 +29645,15 @@
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="178"/>
+      <c r="A71" s="201"/>
       <c r="B71" s="122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C71" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="116" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -29672,15 +29672,15 @@
       <c r="S71" s="5"/>
     </row>
     <row r="72" spans="1:19" s="89" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="178"/>
+      <c r="A72" s="201"/>
       <c r="B72" s="122" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C72" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="131" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -29699,15 +29699,15 @@
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="178"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="123" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C73" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="131" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -29726,15 +29726,15 @@
       <c r="S73" s="5"/>
     </row>
     <row r="74" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="178"/>
+      <c r="A74" s="201"/>
       <c r="B74" s="123" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C74" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -29753,15 +29753,15 @@
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="178"/>
+      <c r="A75" s="201"/>
       <c r="B75" s="123" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C75" s="115" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -29780,10 +29780,10 @@
       <c r="S75" s="5"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="178"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="184"/>
-      <c r="D76" s="185"/>
+      <c r="A76" s="201"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="200"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -29801,9 +29801,9 @@
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="178"/>
+      <c r="A77" s="201"/>
       <c r="B77" s="122" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C77" s="113" t="s">
         <v>37</v>
@@ -29826,9 +29826,9 @@
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="178"/>
+      <c r="A78" s="201"/>
       <c r="B78" s="122" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C78" s="113" t="s">
         <v>37</v>
@@ -29851,9 +29851,9 @@
       <c r="S78" s="5"/>
     </row>
     <row r="79" spans="1:19" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="178"/>
+      <c r="A79" s="201"/>
       <c r="B79" s="122" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C79" s="113" t="s">
         <v>37</v>
@@ -29876,7 +29876,7 @@
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="179"/>
+      <c r="A80" s="202"/>
       <c r="B80" s="127"/>
       <c r="C80" s="125"/>
       <c r="D80" s="126"/>
@@ -33636,6 +33636,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A67:A80"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
@@ -33652,11 +33657,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A67:A80"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
